--- a/SHAK.xlsx
+++ b/SHAK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0283D8-81C9-454E-8DC2-95DDAEB8A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDEB8B-3342-401F-A2D3-56111E89F72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A60EA5E0-C199-40F0-98F9-B16101AC0186}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A60EA5E0-C199-40F0-98F9-B16101AC0186}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +177,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -191,6 +189,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,18 +226,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,33 +576,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592B698F-20CD-40A6-9223-601BEA199DA6}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>137.83000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="3">
@@ -600,8 +614,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
@@ -609,8 +623,8 @@
         <v>5880.7446451600008</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="3">
@@ -620,8 +634,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3">
@@ -631,8 +645,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="3">
@@ -653,21 +667,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -693,8 +708,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="4">
@@ -710,17 +725,17 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>250</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>256</v>
       </c>
       <c r="H4" s="3"/>
@@ -815,27 +830,27 @@
       <c r="CS4" s="3"/>
       <c r="CT4" s="3"/>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:F5" si="0">+C3+C4</f>
         <v>579</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f>+G3+G4</f>
         <v>589</v>
       </c>
@@ -931,7 +946,7 @@
       <c r="CS5" s="3"/>
       <c r="CT5" s="3"/>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1029,8 +1044,8 @@
       <c r="CS6" s="3"/>
       <c r="CT6" s="3"/>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
@@ -1134,8 +1149,8 @@
       <c r="CS7" s="3"/>
       <c r="CT7" s="3"/>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="3">
@@ -1239,39 +1254,39 @@
       <c r="CS8" s="3"/>
       <c r="CT8" s="3"/>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <f t="shared" ref="C9:F9" si="1">+C7+C8</f>
         <v>290.50400000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <f>+G7+G8</f>
         <v>320.89800000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <f t="shared" ref="H9:J9" si="2">+H7+H8</f>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1364,8 +1379,8 @@
       <c r="CS9" s="3"/>
       <c r="CT9" s="3"/>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3">
@@ -1469,8 +1484,8 @@
       <c r="CS10" s="3"/>
       <c r="CT10" s="3"/>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3">
@@ -1574,8 +1589,8 @@
       <c r="CS11" s="3"/>
       <c r="CT11" s="3"/>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3">
@@ -1679,8 +1694,8 @@
       <c r="CS12" s="3"/>
       <c r="CT12" s="3"/>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3">
@@ -1784,8 +1799,8 @@
       <c r="CS13" s="3"/>
       <c r="CT13" s="3"/>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3">
@@ -1900,8 +1915,8 @@
       <c r="CS14" s="3"/>
       <c r="CT14" s="3"/>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3">
@@ -2005,8 +2020,8 @@
       <c r="CS15" s="3"/>
       <c r="CT15" s="3"/>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3">
@@ -2110,8 +2125,8 @@
       <c r="CS16" s="3"/>
       <c r="CT16" s="3"/>
     </row>
-    <row r="17" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3">
@@ -2215,8 +2230,8 @@
       <c r="CS17" s="3"/>
       <c r="CT17" s="3"/>
     </row>
-    <row r="18" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3">
@@ -2320,8 +2335,8 @@
       <c r="CS18" s="3"/>
       <c r="CT18" s="3"/>
     </row>
-    <row r="19" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3">
@@ -2445,8 +2460,8 @@
       <c r="CS19" s="3"/>
       <c r="CT19" s="3"/>
     </row>
-    <row r="20" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="3">
@@ -2550,8 +2565,8 @@
       <c r="CS20" s="3"/>
       <c r="CT20" s="3"/>
     </row>
-    <row r="21" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="3">
@@ -2655,8 +2670,8 @@
       <c r="CS21" s="3"/>
       <c r="CT21" s="3"/>
     </row>
-    <row r="22" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3">
@@ -2771,8 +2786,8 @@
       <c r="CS22" s="3"/>
       <c r="CT22" s="3"/>
     </row>
-    <row r="23" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="3">
@@ -2876,8 +2891,8 @@
       <c r="CS23" s="3"/>
       <c r="CT23" s="3"/>
     </row>
-    <row r="24" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="3">
@@ -2981,8 +2996,8 @@
       <c r="CS24" s="3"/>
       <c r="CT24" s="3"/>
     </row>
-    <row r="25" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3">
@@ -3097,7 +3112,7 @@
       <c r="CS25" s="3"/>
       <c r="CT25" s="3"/>
     </row>
-    <row r="26" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:98" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3195,27 +3210,27 @@
       <c r="CS26" s="3"/>
       <c r="CT26" s="3"/>
     </row>
-    <row r="27" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <f>+C25/C28</f>
         <v>5.1625964823485616E-2</v>
       </c>
-      <c r="D27" s="7" t="e">
+      <c r="D27" s="9" t="e">
         <f t="shared" ref="D27:G27" si="7">+D25/D28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="7" t="e">
+      <c r="E27" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="7" t="e">
+      <c r="F27" s="9" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="9">
         <f t="shared" si="7"/>
         <v>0.10580757726819576</v>
       </c>
@@ -3311,8 +3326,8 @@
       <c r="CS27" s="3"/>
       <c r="CT27" s="3"/>
     </row>
-    <row r="28" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3">
@@ -3416,7 +3431,7 @@
       <c r="CS28" s="3"/>
       <c r="CT28" s="3"/>
     </row>
-    <row r="29" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:98" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3514,7 +3529,7 @@
       <c r="CS29" s="3"/>
       <c r="CT29" s="3"/>
     </row>
-    <row r="30" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:98" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3612,7 +3627,7 @@
       <c r="CS30" s="3"/>
       <c r="CT30" s="3"/>
     </row>
-    <row r="31" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:98" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -3710,7 +3725,7 @@
       <c r="CS31" s="3"/>
       <c r="CT31" s="3"/>
     </row>
-    <row r="32" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:98" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3808,7 +3823,7 @@
       <c r="CS32" s="3"/>
       <c r="CT32" s="3"/>
     </row>
-    <row r="33" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3906,7 +3921,7 @@
       <c r="CS33" s="3"/>
       <c r="CT33" s="3"/>
     </row>
-    <row r="34" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -4004,7 +4019,7 @@
       <c r="CS34" s="3"/>
       <c r="CT34" s="3"/>
     </row>
-    <row r="35" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4102,7 +4117,7 @@
       <c r="CS35" s="3"/>
       <c r="CT35" s="3"/>
     </row>
-    <row r="36" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4200,7 +4215,7 @@
       <c r="CS36" s="3"/>
       <c r="CT36" s="3"/>
     </row>
-    <row r="37" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4298,7 +4313,7 @@
       <c r="CS37" s="3"/>
       <c r="CT37" s="3"/>
     </row>
-    <row r="38" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4396,7 +4411,7 @@
       <c r="CS38" s="3"/>
       <c r="CT38" s="3"/>
     </row>
-    <row r="39" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4494,7 +4509,7 @@
       <c r="CS39" s="3"/>
       <c r="CT39" s="3"/>
     </row>
-    <row r="40" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4592,7 +4607,7 @@
       <c r="CS40" s="3"/>
       <c r="CT40" s="3"/>
     </row>
-    <row r="41" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4690,7 +4705,7 @@
       <c r="CS41" s="3"/>
       <c r="CT41" s="3"/>
     </row>
-    <row r="42" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4788,7 +4803,7 @@
       <c r="CS42" s="3"/>
       <c r="CT42" s="3"/>
     </row>
-    <row r="43" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4886,7 +4901,7 @@
       <c r="CS43" s="3"/>
       <c r="CT43" s="3"/>
     </row>
-    <row r="44" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4984,7 +4999,7 @@
       <c r="CS44" s="3"/>
       <c r="CT44" s="3"/>
     </row>
-    <row r="45" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5082,7 +5097,7 @@
       <c r="CS45" s="3"/>
       <c r="CT45" s="3"/>
     </row>
-    <row r="46" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5180,7 +5195,7 @@
       <c r="CS46" s="3"/>
       <c r="CT46" s="3"/>
     </row>
-    <row r="47" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5278,7 +5293,7 @@
       <c r="CS47" s="3"/>
       <c r="CT47" s="3"/>
     </row>
-    <row r="48" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -5376,7 +5391,7 @@
       <c r="CS48" s="3"/>
       <c r="CT48" s="3"/>
     </row>
-    <row r="49" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5474,7 +5489,7 @@
       <c r="CS49" s="3"/>
       <c r="CT49" s="3"/>
     </row>
-    <row r="50" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5572,7 +5587,7 @@
       <c r="CS50" s="3"/>
       <c r="CT50" s="3"/>
     </row>
-    <row r="51" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5670,7 +5685,7 @@
       <c r="CS51" s="3"/>
       <c r="CT51" s="3"/>
     </row>
-    <row r="52" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5768,7 +5783,7 @@
       <c r="CS52" s="3"/>
       <c r="CT52" s="3"/>
     </row>
-    <row r="53" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5866,7 +5881,7 @@
       <c r="CS53" s="3"/>
       <c r="CT53" s="3"/>
     </row>
-    <row r="54" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5964,7 +5979,7 @@
       <c r="CS54" s="3"/>
       <c r="CT54" s="3"/>
     </row>
-    <row r="55" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -6062,7 +6077,7 @@
       <c r="CS55" s="3"/>
       <c r="CT55" s="3"/>
     </row>
-    <row r="56" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -6160,7 +6175,7 @@
       <c r="CS56" s="3"/>
       <c r="CT56" s="3"/>
     </row>
-    <row r="57" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6258,7 +6273,7 @@
       <c r="CS57" s="3"/>
       <c r="CT57" s="3"/>
     </row>
-    <row r="58" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -6356,7 +6371,7 @@
       <c r="CS58" s="3"/>
       <c r="CT58" s="3"/>
     </row>
-    <row r="59" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6454,7 +6469,7 @@
       <c r="CS59" s="3"/>
       <c r="CT59" s="3"/>
     </row>
-    <row r="60" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -6552,7 +6567,7 @@
       <c r="CS60" s="3"/>
       <c r="CT60" s="3"/>
     </row>
-    <row r="61" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -6650,7 +6665,7 @@
       <c r="CS61" s="3"/>
       <c r="CT61" s="3"/>
     </row>
-    <row r="62" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -6748,7 +6763,7 @@
       <c r="CS62" s="3"/>
       <c r="CT62" s="3"/>
     </row>
-    <row r="63" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -6846,7 +6861,7 @@
       <c r="CS63" s="3"/>
       <c r="CT63" s="3"/>
     </row>
-    <row r="64" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6944,7 +6959,7 @@
       <c r="CS64" s="3"/>
       <c r="CT64" s="3"/>
     </row>
-    <row r="65" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -7042,7 +7057,7 @@
       <c r="CS65" s="3"/>
       <c r="CT65" s="3"/>
     </row>
-    <row r="66" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -7140,7 +7155,7 @@
       <c r="CS66" s="3"/>
       <c r="CT66" s="3"/>
     </row>
-    <row r="67" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7238,7 +7253,7 @@
       <c r="CS67" s="3"/>
       <c r="CT67" s="3"/>
     </row>
-    <row r="68" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -7336,7 +7351,7 @@
       <c r="CS68" s="3"/>
       <c r="CT68" s="3"/>
     </row>
-    <row r="69" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7434,7 +7449,7 @@
       <c r="CS69" s="3"/>
       <c r="CT69" s="3"/>
     </row>
-    <row r="70" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -7532,7 +7547,7 @@
       <c r="CS70" s="3"/>
       <c r="CT70" s="3"/>
     </row>
-    <row r="71" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7630,7 +7645,7 @@
       <c r="CS71" s="3"/>
       <c r="CT71" s="3"/>
     </row>
-    <row r="72" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7728,7 +7743,7 @@
       <c r="CS72" s="3"/>
       <c r="CT72" s="3"/>
     </row>
-    <row r="73" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7826,7 +7841,7 @@
       <c r="CS73" s="3"/>
       <c r="CT73" s="3"/>
     </row>
-    <row r="74" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -7924,7 +7939,7 @@
       <c r="CS74" s="3"/>
       <c r="CT74" s="3"/>
     </row>
-    <row r="75" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -8022,7 +8037,7 @@
       <c r="CS75" s="3"/>
       <c r="CT75" s="3"/>
     </row>
-    <row r="76" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -8120,7 +8135,7 @@
       <c r="CS76" s="3"/>
       <c r="CT76" s="3"/>
     </row>
-    <row r="77" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -8218,7 +8233,7 @@
       <c r="CS77" s="3"/>
       <c r="CT77" s="3"/>
     </row>
-    <row r="78" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -8316,7 +8331,7 @@
       <c r="CS78" s="3"/>
       <c r="CT78" s="3"/>
     </row>
-    <row r="79" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -8414,7 +8429,7 @@
       <c r="CS79" s="3"/>
       <c r="CT79" s="3"/>
     </row>
-    <row r="80" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -8512,7 +8527,7 @@
       <c r="CS80" s="3"/>
       <c r="CT80" s="3"/>
     </row>
-    <row r="81" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -8610,7 +8625,7 @@
       <c r="CS81" s="3"/>
       <c r="CT81" s="3"/>
     </row>
-    <row r="82" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -8708,7 +8723,7 @@
       <c r="CS82" s="3"/>
       <c r="CT82" s="3"/>
     </row>
-    <row r="83" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -8806,7 +8821,7 @@
       <c r="CS83" s="3"/>
       <c r="CT83" s="3"/>
     </row>
-    <row r="84" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -8904,7 +8919,7 @@
       <c r="CS84" s="3"/>
       <c r="CT84" s="3"/>
     </row>
-    <row r="85" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -9002,7 +9017,7 @@
       <c r="CS85" s="3"/>
       <c r="CT85" s="3"/>
     </row>
-    <row r="86" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -9100,7 +9115,7 @@
       <c r="CS86" s="3"/>
       <c r="CT86" s="3"/>
     </row>
-    <row r="87" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -9198,7 +9213,7 @@
       <c r="CS87" s="3"/>
       <c r="CT87" s="3"/>
     </row>
-    <row r="88" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -9296,7 +9311,7 @@
       <c r="CS88" s="3"/>
       <c r="CT88" s="3"/>
     </row>
-    <row r="89" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -9394,7 +9409,7 @@
       <c r="CS89" s="3"/>
       <c r="CT89" s="3"/>
     </row>
-    <row r="90" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -9492,7 +9507,7 @@
       <c r="CS90" s="3"/>
       <c r="CT90" s="3"/>
     </row>
-    <row r="91" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -9590,7 +9605,7 @@
       <c r="CS91" s="3"/>
       <c r="CT91" s="3"/>
     </row>
-    <row r="92" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -9688,7 +9703,7 @@
       <c r="CS92" s="3"/>
       <c r="CT92" s="3"/>
     </row>
-    <row r="93" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -9786,7 +9801,7 @@
       <c r="CS93" s="3"/>
       <c r="CT93" s="3"/>
     </row>
-    <row r="94" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -9884,7 +9899,7 @@
       <c r="CS94" s="3"/>
       <c r="CT94" s="3"/>
     </row>
-    <row r="95" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -9982,7 +9997,7 @@
       <c r="CS95" s="3"/>
       <c r="CT95" s="3"/>
     </row>
-    <row r="96" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -10080,7 +10095,7 @@
       <c r="CS96" s="3"/>
       <c r="CT96" s="3"/>
     </row>
-    <row r="97" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -10178,7 +10193,7 @@
       <c r="CS97" s="3"/>
       <c r="CT97" s="3"/>
     </row>
-    <row r="98" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -10276,7 +10291,7 @@
       <c r="CS98" s="3"/>
       <c r="CT98" s="3"/>
     </row>
-    <row r="99" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -10374,7 +10389,7 @@
       <c r="CS99" s="3"/>
       <c r="CT99" s="3"/>
     </row>
-    <row r="100" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -10472,7 +10487,7 @@
       <c r="CS100" s="3"/>
       <c r="CT100" s="3"/>
     </row>
-    <row r="101" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -10570,7 +10585,7 @@
       <c r="CS101" s="3"/>
       <c r="CT101" s="3"/>
     </row>
-    <row r="102" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -10668,7 +10683,7 @@
       <c r="CS102" s="3"/>
       <c r="CT102" s="3"/>
     </row>
-    <row r="103" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -10766,7 +10781,7 @@
       <c r="CS103" s="3"/>
       <c r="CT103" s="3"/>
     </row>
-    <row r="104" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -10864,7 +10879,7 @@
       <c r="CS104" s="3"/>
       <c r="CT104" s="3"/>
     </row>
-    <row r="105" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -10962,7 +10977,7 @@
       <c r="CS105" s="3"/>
       <c r="CT105" s="3"/>
     </row>
-    <row r="106" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -11060,7 +11075,7 @@
       <c r="CS106" s="3"/>
       <c r="CT106" s="3"/>
     </row>
-    <row r="107" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -11158,7 +11173,7 @@
       <c r="CS107" s="3"/>
       <c r="CT107" s="3"/>
     </row>
-    <row r="108" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -11256,7 +11271,7 @@
       <c r="CS108" s="3"/>
       <c r="CT108" s="3"/>
     </row>
-    <row r="109" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -11354,7 +11369,7 @@
       <c r="CS109" s="3"/>
       <c r="CT109" s="3"/>
     </row>
-    <row r="110" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -11452,7 +11467,7 @@
       <c r="CS110" s="3"/>
       <c r="CT110" s="3"/>
     </row>
-    <row r="111" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -11550,7 +11565,7 @@
       <c r="CS111" s="3"/>
       <c r="CT111" s="3"/>
     </row>
-    <row r="112" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -11648,7 +11663,7 @@
       <c r="CS112" s="3"/>
       <c r="CT112" s="3"/>
     </row>
-    <row r="113" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -11746,7 +11761,7 @@
       <c r="CS113" s="3"/>
       <c r="CT113" s="3"/>
     </row>
-    <row r="114" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -11844,7 +11859,7 @@
       <c r="CS114" s="3"/>
       <c r="CT114" s="3"/>
     </row>
-    <row r="115" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -11942,7 +11957,7 @@
       <c r="CS115" s="3"/>
       <c r="CT115" s="3"/>
     </row>
-    <row r="116" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -12040,7 +12055,7 @@
       <c r="CS116" s="3"/>
       <c r="CT116" s="3"/>
     </row>
-    <row r="117" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -12138,7 +12153,7 @@
       <c r="CS117" s="3"/>
       <c r="CT117" s="3"/>
     </row>
-    <row r="118" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -12236,7 +12251,7 @@
       <c r="CS118" s="3"/>
       <c r="CT118" s="3"/>
     </row>
-    <row r="119" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -12334,7 +12349,7 @@
       <c r="CS119" s="3"/>
       <c r="CT119" s="3"/>
     </row>
-    <row r="120" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -12432,7 +12447,7 @@
       <c r="CS120" s="3"/>
       <c r="CT120" s="3"/>
     </row>
-    <row r="121" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -12530,7 +12545,7 @@
       <c r="CS121" s="3"/>
       <c r="CT121" s="3"/>
     </row>
-    <row r="122" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -12628,7 +12643,7 @@
       <c r="CS122" s="3"/>
       <c r="CT122" s="3"/>
     </row>
-    <row r="123" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -12726,7 +12741,7 @@
       <c r="CS123" s="3"/>
       <c r="CT123" s="3"/>
     </row>
-    <row r="124" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -12824,7 +12839,7 @@
       <c r="CS124" s="3"/>
       <c r="CT124" s="3"/>
     </row>
-    <row r="125" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -12922,7 +12937,7 @@
       <c r="CS125" s="3"/>
       <c r="CT125" s="3"/>
     </row>
-    <row r="126" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -13020,7 +13035,7 @@
       <c r="CS126" s="3"/>
       <c r="CT126" s="3"/>
     </row>
-    <row r="127" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -13118,7 +13133,7 @@
       <c r="CS127" s="3"/>
       <c r="CT127" s="3"/>
     </row>
-    <row r="128" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -13216,7 +13231,7 @@
       <c r="CS128" s="3"/>
       <c r="CT128" s="3"/>
     </row>
-    <row r="129" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -13314,7 +13329,7 @@
       <c r="CS129" s="3"/>
       <c r="CT129" s="3"/>
     </row>
-    <row r="130" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -13412,7 +13427,7 @@
       <c r="CS130" s="3"/>
       <c r="CT130" s="3"/>
     </row>
-    <row r="131" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -13510,7 +13525,7 @@
       <c r="CS131" s="3"/>
       <c r="CT131" s="3"/>
     </row>
-    <row r="132" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -13608,7 +13623,7 @@
       <c r="CS132" s="3"/>
       <c r="CT132" s="3"/>
     </row>
-    <row r="133" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -13706,7 +13721,7 @@
       <c r="CS133" s="3"/>
       <c r="CT133" s="3"/>
     </row>
-    <row r="134" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -13804,7 +13819,7 @@
       <c r="CS134" s="3"/>
       <c r="CT134" s="3"/>
     </row>
-    <row r="135" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -13902,7 +13917,7 @@
       <c r="CS135" s="3"/>
       <c r="CT135" s="3"/>
     </row>
-    <row r="136" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -14000,7 +14015,7 @@
       <c r="CS136" s="3"/>
       <c r="CT136" s="3"/>
     </row>
-    <row r="137" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -14098,7 +14113,7 @@
       <c r="CS137" s="3"/>
       <c r="CT137" s="3"/>
     </row>
-    <row r="138" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -14196,7 +14211,7 @@
       <c r="CS138" s="3"/>
       <c r="CT138" s="3"/>
     </row>
-    <row r="139" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -14294,7 +14309,7 @@
       <c r="CS139" s="3"/>
       <c r="CT139" s="3"/>
     </row>
-    <row r="140" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -14392,7 +14407,7 @@
       <c r="CS140" s="3"/>
       <c r="CT140" s="3"/>
     </row>
-    <row r="141" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -14490,7 +14505,7 @@
       <c r="CS141" s="3"/>
       <c r="CT141" s="3"/>
     </row>
-    <row r="142" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -14588,7 +14603,7 @@
       <c r="CS142" s="3"/>
       <c r="CT142" s="3"/>
     </row>
-    <row r="143" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -14686,7 +14701,7 @@
       <c r="CS143" s="3"/>
       <c r="CT143" s="3"/>
     </row>
-    <row r="144" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -14784,7 +14799,7 @@
       <c r="CS144" s="3"/>
       <c r="CT144" s="3"/>
     </row>
-    <row r="145" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -14882,7 +14897,7 @@
       <c r="CS145" s="3"/>
       <c r="CT145" s="3"/>
     </row>
-    <row r="146" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -14980,7 +14995,7 @@
       <c r="CS146" s="3"/>
       <c r="CT146" s="3"/>
     </row>
-    <row r="147" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -15078,7 +15093,7 @@
       <c r="CS147" s="3"/>
       <c r="CT147" s="3"/>
     </row>
-    <row r="148" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -15176,7 +15191,7 @@
       <c r="CS148" s="3"/>
       <c r="CT148" s="3"/>
     </row>
-    <row r="149" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -15274,7 +15289,7 @@
       <c r="CS149" s="3"/>
       <c r="CT149" s="3"/>
     </row>
-    <row r="150" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -15372,7 +15387,7 @@
       <c r="CS150" s="3"/>
       <c r="CT150" s="3"/>
     </row>
-    <row r="151" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -15470,7 +15485,7 @@
       <c r="CS151" s="3"/>
       <c r="CT151" s="3"/>
     </row>
-    <row r="152" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -15568,7 +15583,7 @@
       <c r="CS152" s="3"/>
       <c r="CT152" s="3"/>
     </row>
-    <row r="153" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -15666,7 +15681,7 @@
       <c r="CS153" s="3"/>
       <c r="CT153" s="3"/>
     </row>
-    <row r="154" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -15764,7 +15779,7 @@
       <c r="CS154" s="3"/>
       <c r="CT154" s="3"/>
     </row>
-    <row r="155" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -15862,7 +15877,7 @@
       <c r="CS155" s="3"/>
       <c r="CT155" s="3"/>
     </row>
-    <row r="156" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -15960,7 +15975,7 @@
       <c r="CS156" s="3"/>
       <c r="CT156" s="3"/>
     </row>
-    <row r="157" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -16058,7 +16073,7 @@
       <c r="CS157" s="3"/>
       <c r="CT157" s="3"/>
     </row>
-    <row r="158" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -16156,7 +16171,7 @@
       <c r="CS158" s="3"/>
       <c r="CT158" s="3"/>
     </row>
-    <row r="159" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -16254,7 +16269,7 @@
       <c r="CS159" s="3"/>
       <c r="CT159" s="3"/>
     </row>
-    <row r="160" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -16352,7 +16367,7 @@
       <c r="CS160" s="3"/>
       <c r="CT160" s="3"/>
     </row>
-    <row r="161" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -16450,7 +16465,7 @@
       <c r="CS161" s="3"/>
       <c r="CT161" s="3"/>
     </row>
-    <row r="162" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -16548,7 +16563,7 @@
       <c r="CS162" s="3"/>
       <c r="CT162" s="3"/>
     </row>
-    <row r="163" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -16646,7 +16661,7 @@
       <c r="CS163" s="3"/>
       <c r="CT163" s="3"/>
     </row>
-    <row r="164" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -16744,7 +16759,7 @@
       <c r="CS164" s="3"/>
       <c r="CT164" s="3"/>
     </row>
-    <row r="165" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -16842,7 +16857,7 @@
       <c r="CS165" s="3"/>
       <c r="CT165" s="3"/>
     </row>
-    <row r="166" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -16940,7 +16955,7 @@
       <c r="CS166" s="3"/>
       <c r="CT166" s="3"/>
     </row>
-    <row r="167" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -17038,7 +17053,7 @@
       <c r="CS167" s="3"/>
       <c r="CT167" s="3"/>
     </row>
-    <row r="168" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -17136,7 +17151,7 @@
       <c r="CS168" s="3"/>
       <c r="CT168" s="3"/>
     </row>
-    <row r="169" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -17234,7 +17249,7 @@
       <c r="CS169" s="3"/>
       <c r="CT169" s="3"/>
     </row>
-    <row r="170" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -17332,7 +17347,7 @@
       <c r="CS170" s="3"/>
       <c r="CT170" s="3"/>
     </row>
-    <row r="171" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -17430,7 +17445,7 @@
       <c r="CS171" s="3"/>
       <c r="CT171" s="3"/>
     </row>
-    <row r="172" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -17528,7 +17543,7 @@
       <c r="CS172" s="3"/>
       <c r="CT172" s="3"/>
     </row>
-    <row r="173" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -17626,7 +17641,7 @@
       <c r="CS173" s="3"/>
       <c r="CT173" s="3"/>
     </row>
-    <row r="174" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -17724,7 +17739,7 @@
       <c r="CS174" s="3"/>
       <c r="CT174" s="3"/>
     </row>
-    <row r="175" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -17822,7 +17837,7 @@
       <c r="CS175" s="3"/>
       <c r="CT175" s="3"/>
     </row>
-    <row r="176" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -17920,7 +17935,7 @@
       <c r="CS176" s="3"/>
       <c r="CT176" s="3"/>
     </row>
-    <row r="177" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -18018,7 +18033,7 @@
       <c r="CS177" s="3"/>
       <c r="CT177" s="3"/>
     </row>
-    <row r="178" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -18116,7 +18131,7 @@
       <c r="CS178" s="3"/>
       <c r="CT178" s="3"/>
     </row>
-    <row r="179" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -18214,7 +18229,7 @@
       <c r="CS179" s="3"/>
       <c r="CT179" s="3"/>
     </row>
-    <row r="180" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -18312,7 +18327,7 @@
       <c r="CS180" s="3"/>
       <c r="CT180" s="3"/>
     </row>
-    <row r="181" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -18410,7 +18425,7 @@
       <c r="CS181" s="3"/>
       <c r="CT181" s="3"/>
     </row>
-    <row r="182" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -18508,7 +18523,7 @@
       <c r="CS182" s="3"/>
       <c r="CT182" s="3"/>
     </row>
-    <row r="183" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -18606,7 +18621,7 @@
       <c r="CS183" s="3"/>
       <c r="CT183" s="3"/>
     </row>
-    <row r="184" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -18704,7 +18719,7 @@
       <c r="CS184" s="3"/>
       <c r="CT184" s="3"/>
     </row>
-    <row r="185" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -18802,7 +18817,7 @@
       <c r="CS185" s="3"/>
       <c r="CT185" s="3"/>
     </row>
-    <row r="186" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -18900,7 +18915,7 @@
       <c r="CS186" s="3"/>
       <c r="CT186" s="3"/>
     </row>
-    <row r="187" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -18998,7 +19013,7 @@
       <c r="CS187" s="3"/>
       <c r="CT187" s="3"/>
     </row>
-    <row r="188" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -19096,7 +19111,7 @@
       <c r="CS188" s="3"/>
       <c r="CT188" s="3"/>
     </row>
-    <row r="189" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -19194,7 +19209,7 @@
       <c r="CS189" s="3"/>
       <c r="CT189" s="3"/>
     </row>
-    <row r="190" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -19292,7 +19307,7 @@
       <c r="CS190" s="3"/>
       <c r="CT190" s="3"/>
     </row>
-    <row r="191" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -19390,7 +19405,7 @@
       <c r="CS191" s="3"/>
       <c r="CT191" s="3"/>
     </row>
-    <row r="192" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -19488,7 +19503,7 @@
       <c r="CS192" s="3"/>
       <c r="CT192" s="3"/>
     </row>
-    <row r="193" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -19586,7 +19601,7 @@
       <c r="CS193" s="3"/>
       <c r="CT193" s="3"/>
     </row>
-    <row r="194" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -19684,7 +19699,7 @@
       <c r="CS194" s="3"/>
       <c r="CT194" s="3"/>
     </row>
-    <row r="195" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -19782,7 +19797,7 @@
       <c r="CS195" s="3"/>
       <c r="CT195" s="3"/>
     </row>
-    <row r="196" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -19880,7 +19895,7 @@
       <c r="CS196" s="3"/>
       <c r="CT196" s="3"/>
     </row>
-    <row r="197" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -19978,7 +19993,7 @@
       <c r="CS197" s="3"/>
       <c r="CT197" s="3"/>
     </row>
-    <row r="198" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -20076,7 +20091,7 @@
       <c r="CS198" s="3"/>
       <c r="CT198" s="3"/>
     </row>
-    <row r="199" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -20174,7 +20189,7 @@
       <c r="CS199" s="3"/>
       <c r="CT199" s="3"/>
     </row>
-    <row r="200" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -20272,7 +20287,7 @@
       <c r="CS200" s="3"/>
       <c r="CT200" s="3"/>
     </row>
-    <row r="201" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -20370,7 +20385,7 @@
       <c r="CS201" s="3"/>
       <c r="CT201" s="3"/>
     </row>
-    <row r="202" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -20468,7 +20483,7 @@
       <c r="CS202" s="3"/>
       <c r="CT202" s="3"/>
     </row>
-    <row r="203" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -20566,7 +20581,7 @@
       <c r="CS203" s="3"/>
       <c r="CT203" s="3"/>
     </row>
-    <row r="204" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -20664,7 +20679,7 @@
       <c r="CS204" s="3"/>
       <c r="CT204" s="3"/>
     </row>
-    <row r="205" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -20762,7 +20777,7 @@
       <c r="CS205" s="3"/>
       <c r="CT205" s="3"/>
     </row>
-    <row r="206" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -20860,7 +20875,7 @@
       <c r="CS206" s="3"/>
       <c r="CT206" s="3"/>
     </row>
-    <row r="207" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -20958,7 +20973,7 @@
       <c r="CS207" s="3"/>
       <c r="CT207" s="3"/>
     </row>
-    <row r="208" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -21056,7 +21071,7 @@
       <c r="CS208" s="3"/>
       <c r="CT208" s="3"/>
     </row>
-    <row r="209" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -21154,7 +21169,7 @@
       <c r="CS209" s="3"/>
       <c r="CT209" s="3"/>
     </row>
-    <row r="210" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -21252,7 +21267,7 @@
       <c r="CS210" s="3"/>
       <c r="CT210" s="3"/>
     </row>
-    <row r="211" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -21350,7 +21365,7 @@
       <c r="CS211" s="3"/>
       <c r="CT211" s="3"/>
     </row>
-    <row r="212" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -21448,7 +21463,7 @@
       <c r="CS212" s="3"/>
       <c r="CT212" s="3"/>
     </row>
-    <row r="213" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -21546,7 +21561,7 @@
       <c r="CS213" s="3"/>
       <c r="CT213" s="3"/>
     </row>
-    <row r="214" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -21644,7 +21659,7 @@
       <c r="CS214" s="3"/>
       <c r="CT214" s="3"/>
     </row>
-    <row r="215" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -21742,7 +21757,7 @@
       <c r="CS215" s="3"/>
       <c r="CT215" s="3"/>
     </row>
-    <row r="216" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -21840,7 +21855,7 @@
       <c r="CS216" s="3"/>
       <c r="CT216" s="3"/>
     </row>
-    <row r="217" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -21938,7 +21953,7 @@
       <c r="CS217" s="3"/>
       <c r="CT217" s="3"/>
     </row>
-    <row r="218" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -22036,7 +22051,7 @@
       <c r="CS218" s="3"/>
       <c r="CT218" s="3"/>
     </row>
-    <row r="219" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -22134,7 +22149,7 @@
       <c r="CS219" s="3"/>
       <c r="CT219" s="3"/>
     </row>
-    <row r="220" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -22232,7 +22247,7 @@
       <c r="CS220" s="3"/>
       <c r="CT220" s="3"/>
     </row>
-    <row r="221" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -22330,7 +22345,7 @@
       <c r="CS221" s="3"/>
       <c r="CT221" s="3"/>
     </row>
-    <row r="222" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -22428,7 +22443,7 @@
       <c r="CS222" s="3"/>
       <c r="CT222" s="3"/>
     </row>
-    <row r="223" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -22526,7 +22541,7 @@
       <c r="CS223" s="3"/>
       <c r="CT223" s="3"/>
     </row>
-    <row r="224" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -22624,7 +22639,7 @@
       <c r="CS224" s="3"/>
       <c r="CT224" s="3"/>
     </row>
-    <row r="225" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -22722,7 +22737,7 @@
       <c r="CS225" s="3"/>
       <c r="CT225" s="3"/>
     </row>
-    <row r="226" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -22820,7 +22835,7 @@
       <c r="CS226" s="3"/>
       <c r="CT226" s="3"/>
     </row>
-    <row r="227" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -22918,7 +22933,7 @@
       <c r="CS227" s="3"/>
       <c r="CT227" s="3"/>
     </row>
-    <row r="228" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -23016,7 +23031,7 @@
       <c r="CS228" s="3"/>
       <c r="CT228" s="3"/>
     </row>
-    <row r="229" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -23114,7 +23129,7 @@
       <c r="CS229" s="3"/>
       <c r="CT229" s="3"/>
     </row>
-    <row r="230" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -23212,7 +23227,7 @@
       <c r="CS230" s="3"/>
       <c r="CT230" s="3"/>
     </row>
-    <row r="231" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -23310,7 +23325,7 @@
       <c r="CS231" s="3"/>
       <c r="CT231" s="3"/>
     </row>
-    <row r="232" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -23408,7 +23423,7 @@
       <c r="CS232" s="3"/>
       <c r="CT232" s="3"/>
     </row>
-    <row r="233" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -23506,7 +23521,7 @@
       <c r="CS233" s="3"/>
       <c r="CT233" s="3"/>
     </row>
-    <row r="234" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -23604,7 +23619,7 @@
       <c r="CS234" s="3"/>
       <c r="CT234" s="3"/>
     </row>
-    <row r="235" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -23702,7 +23717,7 @@
       <c r="CS235" s="3"/>
       <c r="CT235" s="3"/>
     </row>
-    <row r="236" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -23800,7 +23815,7 @@
       <c r="CS236" s="3"/>
       <c r="CT236" s="3"/>
     </row>
-    <row r="237" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -23898,7 +23913,7 @@
       <c r="CS237" s="3"/>
       <c r="CT237" s="3"/>
     </row>
-    <row r="238" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -23996,7 +24011,7 @@
       <c r="CS238" s="3"/>
       <c r="CT238" s="3"/>
     </row>
-    <row r="239" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -24094,7 +24109,7 @@
       <c r="CS239" s="3"/>
       <c r="CT239" s="3"/>
     </row>
-    <row r="240" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -24192,7 +24207,7 @@
       <c r="CS240" s="3"/>
       <c r="CT240" s="3"/>
     </row>
-    <row r="241" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -24290,7 +24305,7 @@
       <c r="CS241" s="3"/>
       <c r="CT241" s="3"/>
     </row>
-    <row r="242" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -24388,7 +24403,7 @@
       <c r="CS242" s="3"/>
       <c r="CT242" s="3"/>
     </row>
-    <row r="243" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -24486,7 +24501,7 @@
       <c r="CS243" s="3"/>
       <c r="CT243" s="3"/>
     </row>
-    <row r="244" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -24584,7 +24599,7 @@
       <c r="CS244" s="3"/>
       <c r="CT244" s="3"/>
     </row>
-    <row r="245" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -24682,7 +24697,7 @@
       <c r="CS245" s="3"/>
       <c r="CT245" s="3"/>
     </row>
-    <row r="246" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -24780,7 +24795,7 @@
       <c r="CS246" s="3"/>
       <c r="CT246" s="3"/>
     </row>
-    <row r="247" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -24878,7 +24893,7 @@
       <c r="CS247" s="3"/>
       <c r="CT247" s="3"/>
     </row>
-    <row r="248" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -24976,7 +24991,7 @@
       <c r="CS248" s="3"/>
       <c r="CT248" s="3"/>
     </row>
-    <row r="249" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -25074,7 +25089,7 @@
       <c r="CS249" s="3"/>
       <c r="CT249" s="3"/>
     </row>
-    <row r="250" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -25172,7 +25187,7 @@
       <c r="CS250" s="3"/>
       <c r="CT250" s="3"/>
     </row>
-    <row r="251" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -25270,7 +25285,7 @@
       <c r="CS251" s="3"/>
       <c r="CT251" s="3"/>
     </row>
-    <row r="252" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -25368,7 +25383,7 @@
       <c r="CS252" s="3"/>
       <c r="CT252" s="3"/>
     </row>
-    <row r="253" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -25466,7 +25481,7 @@
       <c r="CS253" s="3"/>
       <c r="CT253" s="3"/>
     </row>
-    <row r="254" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -25564,7 +25579,7 @@
       <c r="CS254" s="3"/>
       <c r="CT254" s="3"/>
     </row>
-    <row r="255" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -25662,7 +25677,7 @@
       <c r="CS255" s="3"/>
       <c r="CT255" s="3"/>
     </row>
-    <row r="256" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -25760,7 +25775,7 @@
       <c r="CS256" s="3"/>
       <c r="CT256" s="3"/>
     </row>
-    <row r="257" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -25858,7 +25873,7 @@
       <c r="CS257" s="3"/>
       <c r="CT257" s="3"/>
     </row>
-    <row r="258" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -25956,7 +25971,7 @@
       <c r="CS258" s="3"/>
       <c r="CT258" s="3"/>
     </row>
-    <row r="259" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -26054,7 +26069,7 @@
       <c r="CS259" s="3"/>
       <c r="CT259" s="3"/>
     </row>
-    <row r="260" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -26152,7 +26167,7 @@
       <c r="CS260" s="3"/>
       <c r="CT260" s="3"/>
     </row>
-    <row r="261" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -26250,7 +26265,7 @@
       <c r="CS261" s="3"/>
       <c r="CT261" s="3"/>
     </row>
-    <row r="262" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -26348,7 +26363,7 @@
       <c r="CS262" s="3"/>
       <c r="CT262" s="3"/>
     </row>
-    <row r="263" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -26446,7 +26461,7 @@
       <c r="CS263" s="3"/>
       <c r="CT263" s="3"/>
     </row>
-    <row r="264" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -26544,7 +26559,7 @@
       <c r="CS264" s="3"/>
       <c r="CT264" s="3"/>
     </row>
-    <row r="265" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -26642,7 +26657,7 @@
       <c r="CS265" s="3"/>
       <c r="CT265" s="3"/>
     </row>
-    <row r="266" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -26740,7 +26755,7 @@
       <c r="CS266" s="3"/>
       <c r="CT266" s="3"/>
     </row>
-    <row r="267" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -26838,7 +26853,7 @@
       <c r="CS267" s="3"/>
       <c r="CT267" s="3"/>
     </row>
-    <row r="268" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -26936,7 +26951,7 @@
       <c r="CS268" s="3"/>
       <c r="CT268" s="3"/>
     </row>
-    <row r="269" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -27034,7 +27049,7 @@
       <c r="CS269" s="3"/>
       <c r="CT269" s="3"/>
     </row>
-    <row r="270" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -27132,7 +27147,7 @@
       <c r="CS270" s="3"/>
       <c r="CT270" s="3"/>
     </row>
-    <row r="271" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -27230,7 +27245,7 @@
       <c r="CS271" s="3"/>
       <c r="CT271" s="3"/>
     </row>
-    <row r="272" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -27328,7 +27343,7 @@
       <c r="CS272" s="3"/>
       <c r="CT272" s="3"/>
     </row>
-    <row r="273" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -27426,7 +27441,7 @@
       <c r="CS273" s="3"/>
       <c r="CT273" s="3"/>
     </row>
-    <row r="274" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -27524,7 +27539,7 @@
       <c r="CS274" s="3"/>
       <c r="CT274" s="3"/>
     </row>
-    <row r="275" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -27622,7 +27637,7 @@
       <c r="CS275" s="3"/>
       <c r="CT275" s="3"/>
     </row>
-    <row r="276" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -27720,7 +27735,7 @@
       <c r="CS276" s="3"/>
       <c r="CT276" s="3"/>
     </row>
-    <row r="277" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -27818,7 +27833,7 @@
       <c r="CS277" s="3"/>
       <c r="CT277" s="3"/>
     </row>
-    <row r="278" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -27916,7 +27931,7 @@
       <c r="CS278" s="3"/>
       <c r="CT278" s="3"/>
     </row>
-    <row r="279" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -28014,7 +28029,7 @@
       <c r="CS279" s="3"/>
       <c r="CT279" s="3"/>
     </row>
-    <row r="280" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -28112,7 +28127,7 @@
       <c r="CS280" s="3"/>
       <c r="CT280" s="3"/>
     </row>
-    <row r="281" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -28210,7 +28225,7 @@
       <c r="CS281" s="3"/>
       <c r="CT281" s="3"/>
     </row>
-    <row r="282" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -28308,7 +28323,7 @@
       <c r="CS282" s="3"/>
       <c r="CT282" s="3"/>
     </row>
-    <row r="283" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -28406,7 +28421,7 @@
       <c r="CS283" s="3"/>
       <c r="CT283" s="3"/>
     </row>
-    <row r="284" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -28504,7 +28519,7 @@
       <c r="CS284" s="3"/>
       <c r="CT284" s="3"/>
     </row>
-    <row r="285" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -28602,7 +28617,7 @@
       <c r="CS285" s="3"/>
       <c r="CT285" s="3"/>
     </row>
-    <row r="286" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -28700,7 +28715,7 @@
       <c r="CS286" s="3"/>
       <c r="CT286" s="3"/>
     </row>
-    <row r="287" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -28798,7 +28813,7 @@
       <c r="CS287" s="3"/>
       <c r="CT287" s="3"/>
     </row>
-    <row r="288" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -28896,7 +28911,7 @@
       <c r="CS288" s="3"/>
       <c r="CT288" s="3"/>
     </row>
-    <row r="289" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -28994,7 +29009,7 @@
       <c r="CS289" s="3"/>
       <c r="CT289" s="3"/>
     </row>
-    <row r="290" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -29092,7 +29107,7 @@
       <c r="CS290" s="3"/>
       <c r="CT290" s="3"/>
     </row>
-    <row r="291" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -29190,7 +29205,7 @@
       <c r="CS291" s="3"/>
       <c r="CT291" s="3"/>
     </row>
-    <row r="292" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -29288,7 +29303,7 @@
       <c r="CS292" s="3"/>
       <c r="CT292" s="3"/>
     </row>
-    <row r="293" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -29386,7 +29401,7 @@
       <c r="CS293" s="3"/>
       <c r="CT293" s="3"/>
     </row>
-    <row r="294" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -29484,7 +29499,7 @@
       <c r="CS294" s="3"/>
       <c r="CT294" s="3"/>
     </row>
-    <row r="295" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -29582,7 +29597,7 @@
       <c r="CS295" s="3"/>
       <c r="CT295" s="3"/>
     </row>
-    <row r="296" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -29680,7 +29695,7 @@
       <c r="CS296" s="3"/>
       <c r="CT296" s="3"/>
     </row>
-    <row r="297" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -29778,7 +29793,7 @@
       <c r="CS297" s="3"/>
       <c r="CT297" s="3"/>
     </row>
-    <row r="298" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -29876,7 +29891,7 @@
       <c r="CS298" s="3"/>
       <c r="CT298" s="3"/>
     </row>
-    <row r="299" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -29974,7 +29989,7 @@
       <c r="CS299" s="3"/>
       <c r="CT299" s="3"/>
     </row>
-    <row r="300" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -30072,7 +30087,7 @@
       <c r="CS300" s="3"/>
       <c r="CT300" s="3"/>
     </row>
-    <row r="301" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -30170,7 +30185,7 @@
       <c r="CS301" s="3"/>
       <c r="CT301" s="3"/>
     </row>
-    <row r="302" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -30268,7 +30283,7 @@
       <c r="CS302" s="3"/>
       <c r="CT302" s="3"/>
     </row>
-    <row r="303" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -30366,7 +30381,7 @@
       <c r="CS303" s="3"/>
       <c r="CT303" s="3"/>
     </row>
-    <row r="304" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -30464,7 +30479,7 @@
       <c r="CS304" s="3"/>
       <c r="CT304" s="3"/>
     </row>
-    <row r="305" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -30562,7 +30577,7 @@
       <c r="CS305" s="3"/>
       <c r="CT305" s="3"/>
     </row>
-    <row r="306" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -30660,7 +30675,7 @@
       <c r="CS306" s="3"/>
       <c r="CT306" s="3"/>
     </row>
-    <row r="307" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -30758,7 +30773,7 @@
       <c r="CS307" s="3"/>
       <c r="CT307" s="3"/>
     </row>
-    <row r="308" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -30856,7 +30871,7 @@
       <c r="CS308" s="3"/>
       <c r="CT308" s="3"/>
     </row>
-    <row r="309" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -30954,7 +30969,7 @@
       <c r="CS309" s="3"/>
       <c r="CT309" s="3"/>
     </row>
-    <row r="310" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -31052,7 +31067,7 @@
       <c r="CS310" s="3"/>
       <c r="CT310" s="3"/>
     </row>
-    <row r="311" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -31150,7 +31165,7 @@
       <c r="CS311" s="3"/>
       <c r="CT311" s="3"/>
     </row>
-    <row r="312" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -31248,7 +31263,7 @@
       <c r="CS312" s="3"/>
       <c r="CT312" s="3"/>
     </row>
-    <row r="313" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -31346,7 +31361,7 @@
       <c r="CS313" s="3"/>
       <c r="CT313" s="3"/>
     </row>
-    <row r="314" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -31444,7 +31459,7 @@
       <c r="CS314" s="3"/>
       <c r="CT314" s="3"/>
     </row>
-    <row r="315" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -31542,7 +31557,7 @@
       <c r="CS315" s="3"/>
       <c r="CT315" s="3"/>
     </row>
-    <row r="316" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -31640,7 +31655,7 @@
       <c r="CS316" s="3"/>
       <c r="CT316" s="3"/>
     </row>
-    <row r="317" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -31738,7 +31753,7 @@
       <c r="CS317" s="3"/>
       <c r="CT317" s="3"/>
     </row>
-    <row r="318" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -31836,7 +31851,7 @@
       <c r="CS318" s="3"/>
       <c r="CT318" s="3"/>
     </row>
-    <row r="319" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -31934,7 +31949,7 @@
       <c r="CS319" s="3"/>
       <c r="CT319" s="3"/>
     </row>
-    <row r="320" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -32032,7 +32047,7 @@
       <c r="CS320" s="3"/>
       <c r="CT320" s="3"/>
     </row>
-    <row r="321" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -32130,7 +32145,7 @@
       <c r="CS321" s="3"/>
       <c r="CT321" s="3"/>
     </row>
-    <row r="322" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -32228,7 +32243,7 @@
       <c r="CS322" s="3"/>
       <c r="CT322" s="3"/>
     </row>
-    <row r="323" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -32326,7 +32341,7 @@
       <c r="CS323" s="3"/>
       <c r="CT323" s="3"/>
     </row>
-    <row r="324" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -32424,7 +32439,7 @@
       <c r="CS324" s="3"/>
       <c r="CT324" s="3"/>
     </row>
-    <row r="325" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -32522,7 +32537,7 @@
       <c r="CS325" s="3"/>
       <c r="CT325" s="3"/>
     </row>
-    <row r="326" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -32620,7 +32635,7 @@
       <c r="CS326" s="3"/>
       <c r="CT326" s="3"/>
     </row>
-    <row r="327" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -32718,7 +32733,7 @@
       <c r="CS327" s="3"/>
       <c r="CT327" s="3"/>
     </row>
-    <row r="328" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -32816,7 +32831,7 @@
       <c r="CS328" s="3"/>
       <c r="CT328" s="3"/>
     </row>
-    <row r="329" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -32914,7 +32929,7 @@
       <c r="CS329" s="3"/>
       <c r="CT329" s="3"/>
     </row>
-    <row r="330" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -33012,7 +33027,7 @@
       <c r="CS330" s="3"/>
       <c r="CT330" s="3"/>
     </row>
-    <row r="331" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -33110,7 +33125,7 @@
       <c r="CS331" s="3"/>
       <c r="CT331" s="3"/>
     </row>
-    <row r="332" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -33208,7 +33223,7 @@
       <c r="CS332" s="3"/>
       <c r="CT332" s="3"/>
     </row>
-    <row r="333" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -33306,7 +33321,7 @@
       <c r="CS333" s="3"/>
       <c r="CT333" s="3"/>
     </row>
-    <row r="334" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -33404,7 +33419,7 @@
       <c r="CS334" s="3"/>
       <c r="CT334" s="3"/>
     </row>
-    <row r="335" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -33502,7 +33517,7 @@
       <c r="CS335" s="3"/>
       <c r="CT335" s="3"/>
     </row>
-    <row r="336" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -33600,7 +33615,7 @@
       <c r="CS336" s="3"/>
       <c r="CT336" s="3"/>
     </row>
-    <row r="337" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -33698,7 +33713,7 @@
       <c r="CS337" s="3"/>
       <c r="CT337" s="3"/>
     </row>
-    <row r="338" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -33796,7 +33811,7 @@
       <c r="CS338" s="3"/>
       <c r="CT338" s="3"/>
     </row>
-    <row r="339" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -33894,7 +33909,7 @@
       <c r="CS339" s="3"/>
       <c r="CT339" s="3"/>
     </row>
-    <row r="340" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -33992,7 +34007,7 @@
       <c r="CS340" s="3"/>
       <c r="CT340" s="3"/>
     </row>
-    <row r="341" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -34090,7 +34105,7 @@
       <c r="CS341" s="3"/>
       <c r="CT341" s="3"/>
     </row>
-    <row r="342" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -34188,7 +34203,7 @@
       <c r="CS342" s="3"/>
       <c r="CT342" s="3"/>
     </row>
-    <row r="343" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -34286,7 +34301,7 @@
       <c r="CS343" s="3"/>
       <c r="CT343" s="3"/>
     </row>
-    <row r="344" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -34384,7 +34399,7 @@
       <c r="CS344" s="3"/>
       <c r="CT344" s="3"/>
     </row>
-    <row r="345" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -34482,7 +34497,7 @@
       <c r="CS345" s="3"/>
       <c r="CT345" s="3"/>
     </row>
-    <row r="346" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -34580,7 +34595,7 @@
       <c r="CS346" s="3"/>
       <c r="CT346" s="3"/>
     </row>
-    <row r="347" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -34678,7 +34693,7 @@
       <c r="CS347" s="3"/>
       <c r="CT347" s="3"/>
     </row>
-    <row r="348" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -34776,7 +34791,7 @@
       <c r="CS348" s="3"/>
       <c r="CT348" s="3"/>
     </row>
-    <row r="349" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -34874,7 +34889,7 @@
       <c r="CS349" s="3"/>
       <c r="CT349" s="3"/>
     </row>
-    <row r="350" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -34972,7 +34987,7 @@
       <c r="CS350" s="3"/>
       <c r="CT350" s="3"/>
     </row>
-    <row r="351" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -35070,7 +35085,7 @@
       <c r="CS351" s="3"/>
       <c r="CT351" s="3"/>
     </row>
-    <row r="352" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -35168,7 +35183,7 @@
       <c r="CS352" s="3"/>
       <c r="CT352" s="3"/>
     </row>
-    <row r="353" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -35266,7 +35281,7 @@
       <c r="CS353" s="3"/>
       <c r="CT353" s="3"/>
     </row>
-    <row r="354" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -35364,7 +35379,7 @@
       <c r="CS354" s="3"/>
       <c r="CT354" s="3"/>
     </row>
-    <row r="355" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -35462,7 +35477,7 @@
       <c r="CS355" s="3"/>
       <c r="CT355" s="3"/>
     </row>
-    <row r="356" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -35560,7 +35575,7 @@
       <c r="CS356" s="3"/>
       <c r="CT356" s="3"/>
     </row>
-    <row r="357" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -35658,7 +35673,7 @@
       <c r="CS357" s="3"/>
       <c r="CT357" s="3"/>
     </row>
-    <row r="358" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -35756,7 +35771,7 @@
       <c r="CS358" s="3"/>
       <c r="CT358" s="3"/>
     </row>
-    <row r="359" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -35854,7 +35869,7 @@
       <c r="CS359" s="3"/>
       <c r="CT359" s="3"/>
     </row>
-    <row r="360" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -35952,7 +35967,7 @@
       <c r="CS360" s="3"/>
       <c r="CT360" s="3"/>
     </row>
-    <row r="361" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -36050,7 +36065,7 @@
       <c r="CS361" s="3"/>
       <c r="CT361" s="3"/>
     </row>
-    <row r="362" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -36148,7 +36163,7 @@
       <c r="CS362" s="3"/>
       <c r="CT362" s="3"/>
     </row>
-    <row r="363" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -36246,7 +36261,7 @@
       <c r="CS363" s="3"/>
       <c r="CT363" s="3"/>
     </row>
-    <row r="364" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -36344,7 +36359,7 @@
       <c r="CS364" s="3"/>
       <c r="CT364" s="3"/>
     </row>
-    <row r="365" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -36442,7 +36457,7 @@
       <c r="CS365" s="3"/>
       <c r="CT365" s="3"/>
     </row>
-    <row r="366" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -36540,7 +36555,7 @@
       <c r="CS366" s="3"/>
       <c r="CT366" s="3"/>
     </row>
-    <row r="367" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -36638,7 +36653,7 @@
       <c r="CS367" s="3"/>
       <c r="CT367" s="3"/>
     </row>
-    <row r="368" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -36736,7 +36751,7 @@
       <c r="CS368" s="3"/>
       <c r="CT368" s="3"/>
     </row>
-    <row r="369" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -36834,7 +36849,7 @@
       <c r="CS369" s="3"/>
       <c r="CT369" s="3"/>
     </row>
-    <row r="370" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -36932,7 +36947,7 @@
       <c r="CS370" s="3"/>
       <c r="CT370" s="3"/>
     </row>
-    <row r="371" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -37030,7 +37045,7 @@
       <c r="CS371" s="3"/>
       <c r="CT371" s="3"/>
     </row>
-    <row r="372" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -37128,7 +37143,7 @@
       <c r="CS372" s="3"/>
       <c r="CT372" s="3"/>
     </row>
-    <row r="373" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -37226,7 +37241,7 @@
       <c r="CS373" s="3"/>
       <c r="CT373" s="3"/>
     </row>
-    <row r="374" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -37324,7 +37339,7 @@
       <c r="CS374" s="3"/>
       <c r="CT374" s="3"/>
     </row>
-    <row r="375" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -37422,7 +37437,7 @@
       <c r="CS375" s="3"/>
       <c r="CT375" s="3"/>
     </row>
-    <row r="376" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -37520,7 +37535,7 @@
       <c r="CS376" s="3"/>
       <c r="CT376" s="3"/>
     </row>
-    <row r="377" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -37618,7 +37633,7 @@
       <c r="CS377" s="3"/>
       <c r="CT377" s="3"/>
     </row>
-    <row r="378" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -37716,7 +37731,7 @@
       <c r="CS378" s="3"/>
       <c r="CT378" s="3"/>
     </row>
-    <row r="379" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -37814,7 +37829,7 @@
       <c r="CS379" s="3"/>
       <c r="CT379" s="3"/>
     </row>
-    <row r="380" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -37912,7 +37927,7 @@
       <c r="CS380" s="3"/>
       <c r="CT380" s="3"/>
     </row>
-    <row r="381" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -38010,7 +38025,7 @@
       <c r="CS381" s="3"/>
       <c r="CT381" s="3"/>
     </row>
-    <row r="382" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -38108,7 +38123,7 @@
       <c r="CS382" s="3"/>
       <c r="CT382" s="3"/>
     </row>
-    <row r="383" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -38206,7 +38221,7 @@
       <c r="CS383" s="3"/>
       <c r="CT383" s="3"/>
     </row>
-    <row r="384" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -38304,7 +38319,7 @@
       <c r="CS384" s="3"/>
       <c r="CT384" s="3"/>
     </row>
-    <row r="385" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -38402,7 +38417,7 @@
       <c r="CS385" s="3"/>
       <c r="CT385" s="3"/>
     </row>
-    <row r="386" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -38500,7 +38515,7 @@
       <c r="CS386" s="3"/>
       <c r="CT386" s="3"/>
     </row>
-    <row r="387" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -38598,7 +38613,7 @@
       <c r="CS387" s="3"/>
       <c r="CT387" s="3"/>
     </row>
-    <row r="388" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -38696,7 +38711,7 @@
       <c r="CS388" s="3"/>
       <c r="CT388" s="3"/>
     </row>
-    <row r="389" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -38794,7 +38809,7 @@
       <c r="CS389" s="3"/>
       <c r="CT389" s="3"/>
     </row>
-    <row r="390" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -38892,7 +38907,7 @@
       <c r="CS390" s="3"/>
       <c r="CT390" s="3"/>
     </row>
-    <row r="391" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -38990,7 +39005,7 @@
       <c r="CS391" s="3"/>
       <c r="CT391" s="3"/>
     </row>
-    <row r="392" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -39088,7 +39103,7 @@
       <c r="CS392" s="3"/>
       <c r="CT392" s="3"/>
     </row>
-    <row r="393" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -39186,7 +39201,7 @@
       <c r="CS393" s="3"/>
       <c r="CT393" s="3"/>
     </row>
-    <row r="394" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -39284,7 +39299,7 @@
       <c r="CS394" s="3"/>
       <c r="CT394" s="3"/>
     </row>
-    <row r="395" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -39382,7 +39397,7 @@
       <c r="CS395" s="3"/>
       <c r="CT395" s="3"/>
     </row>
-    <row r="396" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -39480,7 +39495,7 @@
       <c r="CS396" s="3"/>
       <c r="CT396" s="3"/>
     </row>
-    <row r="397" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -39578,7 +39593,7 @@
       <c r="CS397" s="3"/>
       <c r="CT397" s="3"/>
     </row>
-    <row r="398" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -39676,7 +39691,7 @@
       <c r="CS398" s="3"/>
       <c r="CT398" s="3"/>
     </row>
-    <row r="399" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -39774,7 +39789,7 @@
       <c r="CS399" s="3"/>
       <c r="CT399" s="3"/>
     </row>
-    <row r="400" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -39872,7 +39887,7 @@
       <c r="CS400" s="3"/>
       <c r="CT400" s="3"/>
     </row>
-    <row r="401" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -39970,7 +39985,7 @@
       <c r="CS401" s="3"/>
       <c r="CT401" s="3"/>
     </row>
-    <row r="402" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -40068,7 +40083,7 @@
       <c r="CS402" s="3"/>
       <c r="CT402" s="3"/>
     </row>
-    <row r="403" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -40166,7 +40181,7 @@
       <c r="CS403" s="3"/>
       <c r="CT403" s="3"/>
     </row>
-    <row r="404" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -40264,7 +40279,7 @@
       <c r="CS404" s="3"/>
       <c r="CT404" s="3"/>
     </row>
-    <row r="405" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -40362,7 +40377,7 @@
       <c r="CS405" s="3"/>
       <c r="CT405" s="3"/>
     </row>
-    <row r="406" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -40460,7 +40475,7 @@
       <c r="CS406" s="3"/>
       <c r="CT406" s="3"/>
     </row>
-    <row r="407" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -40558,7 +40573,7 @@
       <c r="CS407" s="3"/>
       <c r="CT407" s="3"/>
     </row>
-    <row r="408" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -40656,7 +40671,7 @@
       <c r="CS408" s="3"/>
       <c r="CT408" s="3"/>
     </row>
-    <row r="409" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -40754,7 +40769,7 @@
       <c r="CS409" s="3"/>
       <c r="CT409" s="3"/>
     </row>
-    <row r="410" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -40852,7 +40867,7 @@
       <c r="CS410" s="3"/>
       <c r="CT410" s="3"/>
     </row>
-    <row r="411" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -40950,7 +40965,7 @@
       <c r="CS411" s="3"/>
       <c r="CT411" s="3"/>
     </row>
-    <row r="412" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -41048,7 +41063,7 @@
       <c r="CS412" s="3"/>
       <c r="CT412" s="3"/>
     </row>
-    <row r="413" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -41146,7 +41161,7 @@
       <c r="CS413" s="3"/>
       <c r="CT413" s="3"/>
     </row>
-    <row r="414" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -41244,7 +41259,7 @@
       <c r="CS414" s="3"/>
       <c r="CT414" s="3"/>
     </row>
-    <row r="415" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -41342,7 +41357,7 @@
       <c r="CS415" s="3"/>
       <c r="CT415" s="3"/>
     </row>
-    <row r="416" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -41440,7 +41455,7 @@
       <c r="CS416" s="3"/>
       <c r="CT416" s="3"/>
     </row>
-    <row r="417" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -41538,7 +41553,7 @@
       <c r="CS417" s="3"/>
       <c r="CT417" s="3"/>
     </row>
-    <row r="418" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -41636,7 +41651,7 @@
       <c r="CS418" s="3"/>
       <c r="CT418" s="3"/>
     </row>
-    <row r="419" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -41734,7 +41749,7 @@
       <c r="CS419" s="3"/>
       <c r="CT419" s="3"/>
     </row>
-    <row r="420" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -41832,7 +41847,7 @@
       <c r="CS420" s="3"/>
       <c r="CT420" s="3"/>
     </row>
-    <row r="421" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -41930,7 +41945,7 @@
       <c r="CS421" s="3"/>
       <c r="CT421" s="3"/>
     </row>
-    <row r="422" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -42028,7 +42043,7 @@
       <c r="CS422" s="3"/>
       <c r="CT422" s="3"/>
     </row>
-    <row r="423" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -42126,7 +42141,7 @@
       <c r="CS423" s="3"/>
       <c r="CT423" s="3"/>
     </row>
-    <row r="424" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -42224,7 +42239,7 @@
       <c r="CS424" s="3"/>
       <c r="CT424" s="3"/>
     </row>
-    <row r="425" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -42322,7 +42337,7 @@
       <c r="CS425" s="3"/>
       <c r="CT425" s="3"/>
     </row>
-    <row r="426" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -42420,7 +42435,7 @@
       <c r="CS426" s="3"/>
       <c r="CT426" s="3"/>
     </row>
-    <row r="427" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -42518,7 +42533,7 @@
       <c r="CS427" s="3"/>
       <c r="CT427" s="3"/>
     </row>
-    <row r="428" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -42616,7 +42631,7 @@
       <c r="CS428" s="3"/>
       <c r="CT428" s="3"/>
     </row>
-    <row r="429" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -42714,7 +42729,7 @@
       <c r="CS429" s="3"/>
       <c r="CT429" s="3"/>
     </row>
-    <row r="430" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -42812,7 +42827,7 @@
       <c r="CS430" s="3"/>
       <c r="CT430" s="3"/>
     </row>
-    <row r="431" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -42910,7 +42925,7 @@
       <c r="CS431" s="3"/>
       <c r="CT431" s="3"/>
     </row>
-    <row r="432" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -43008,7 +43023,7 @@
       <c r="CS432" s="3"/>
       <c r="CT432" s="3"/>
     </row>
-    <row r="433" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -43106,7 +43121,7 @@
       <c r="CS433" s="3"/>
       <c r="CT433" s="3"/>
     </row>
-    <row r="434" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -43204,7 +43219,7 @@
       <c r="CS434" s="3"/>
       <c r="CT434" s="3"/>
     </row>
-    <row r="435" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -43302,7 +43317,7 @@
       <c r="CS435" s="3"/>
       <c r="CT435" s="3"/>
     </row>
-    <row r="436" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -43400,7 +43415,7 @@
       <c r="CS436" s="3"/>
       <c r="CT436" s="3"/>
     </row>
-    <row r="437" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -43498,7 +43513,7 @@
       <c r="CS437" s="3"/>
       <c r="CT437" s="3"/>
     </row>
-    <row r="438" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -43596,7 +43611,7 @@
       <c r="CS438" s="3"/>
       <c r="CT438" s="3"/>
     </row>
-    <row r="439" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -43694,7 +43709,7 @@
       <c r="CS439" s="3"/>
       <c r="CT439" s="3"/>
     </row>
-    <row r="440" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -43792,7 +43807,7 @@
       <c r="CS440" s="3"/>
       <c r="CT440" s="3"/>
     </row>
-    <row r="441" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -43890,7 +43905,7 @@
       <c r="CS441" s="3"/>
       <c r="CT441" s="3"/>
     </row>
-    <row r="442" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -43988,7 +44003,7 @@
       <c r="CS442" s="3"/>
       <c r="CT442" s="3"/>
     </row>
-    <row r="443" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -44086,7 +44101,7 @@
       <c r="CS443" s="3"/>
       <c r="CT443" s="3"/>
     </row>
-    <row r="444" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -44184,7 +44199,7 @@
       <c r="CS444" s="3"/>
       <c r="CT444" s="3"/>
     </row>
-    <row r="445" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -44282,7 +44297,7 @@
       <c r="CS445" s="3"/>
       <c r="CT445" s="3"/>
     </row>
-    <row r="446" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -44380,7 +44395,7 @@
       <c r="CS446" s="3"/>
       <c r="CT446" s="3"/>
     </row>
-    <row r="447" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -44478,7 +44493,7 @@
       <c r="CS447" s="3"/>
       <c r="CT447" s="3"/>
     </row>
-    <row r="448" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -44576,7 +44591,7 @@
       <c r="CS448" s="3"/>
       <c r="CT448" s="3"/>
     </row>
-    <row r="449" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -44674,7 +44689,7 @@
       <c r="CS449" s="3"/>
       <c r="CT449" s="3"/>
     </row>
-    <row r="450" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -44772,7 +44787,7 @@
       <c r="CS450" s="3"/>
       <c r="CT450" s="3"/>
     </row>
-    <row r="451" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -44870,7 +44885,7 @@
       <c r="CS451" s="3"/>
       <c r="CT451" s="3"/>
     </row>
-    <row r="452" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -44968,7 +44983,7 @@
       <c r="CS452" s="3"/>
       <c r="CT452" s="3"/>
     </row>
-    <row r="453" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -45066,7 +45081,7 @@
       <c r="CS453" s="3"/>
       <c r="CT453" s="3"/>
     </row>
-    <row r="454" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -45164,7 +45179,7 @@
       <c r="CS454" s="3"/>
       <c r="CT454" s="3"/>
     </row>
-    <row r="455" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -45262,7 +45277,7 @@
       <c r="CS455" s="3"/>
       <c r="CT455" s="3"/>
     </row>
-    <row r="456" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -45360,7 +45375,7 @@
       <c r="CS456" s="3"/>
       <c r="CT456" s="3"/>
     </row>
-    <row r="457" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -45458,7 +45473,7 @@
       <c r="CS457" s="3"/>
       <c r="CT457" s="3"/>
     </row>
-    <row r="458" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -45556,7 +45571,7 @@
       <c r="CS458" s="3"/>
       <c r="CT458" s="3"/>
     </row>
-    <row r="459" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -45654,7 +45669,7 @@
       <c r="CS459" s="3"/>
       <c r="CT459" s="3"/>
     </row>
-    <row r="460" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -45752,7 +45767,7 @@
       <c r="CS460" s="3"/>
       <c r="CT460" s="3"/>
     </row>
-    <row r="461" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -45850,7 +45865,7 @@
       <c r="CS461" s="3"/>
       <c r="CT461" s="3"/>
     </row>
-    <row r="462" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -45948,7 +45963,7 @@
       <c r="CS462" s="3"/>
       <c r="CT462" s="3"/>
     </row>
-    <row r="463" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -46046,7 +46061,7 @@
       <c r="CS463" s="3"/>
       <c r="CT463" s="3"/>
     </row>
-    <row r="464" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -46144,7 +46159,7 @@
       <c r="CS464" s="3"/>
       <c r="CT464" s="3"/>
     </row>
-    <row r="465" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -46242,7 +46257,7 @@
       <c r="CS465" s="3"/>
       <c r="CT465" s="3"/>
     </row>
-    <row r="466" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -46340,7 +46355,7 @@
       <c r="CS466" s="3"/>
       <c r="CT466" s="3"/>
     </row>
-    <row r="467" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -46438,7 +46453,7 @@
       <c r="CS467" s="3"/>
       <c r="CT467" s="3"/>
     </row>
-    <row r="468" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -46536,7 +46551,7 @@
       <c r="CS468" s="3"/>
       <c r="CT468" s="3"/>
     </row>
-    <row r="469" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -46634,7 +46649,7 @@
       <c r="CS469" s="3"/>
       <c r="CT469" s="3"/>
     </row>
-    <row r="470" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -46732,7 +46747,7 @@
       <c r="CS470" s="3"/>
       <c r="CT470" s="3"/>
     </row>
-    <row r="471" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -46830,7 +46845,7 @@
       <c r="CS471" s="3"/>
       <c r="CT471" s="3"/>
     </row>
-    <row r="472" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -46928,7 +46943,7 @@
       <c r="CS472" s="3"/>
       <c r="CT472" s="3"/>
     </row>
-    <row r="473" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -47026,7 +47041,7 @@
       <c r="CS473" s="3"/>
       <c r="CT473" s="3"/>
     </row>
-    <row r="474" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -47124,7 +47139,7 @@
       <c r="CS474" s="3"/>
       <c r="CT474" s="3"/>
     </row>
-    <row r="475" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -47222,7 +47237,7 @@
       <c r="CS475" s="3"/>
       <c r="CT475" s="3"/>
     </row>
-    <row r="476" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -47320,7 +47335,7 @@
       <c r="CS476" s="3"/>
       <c r="CT476" s="3"/>
     </row>
-    <row r="477" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -47418,7 +47433,7 @@
       <c r="CS477" s="3"/>
       <c r="CT477" s="3"/>
     </row>
-    <row r="478" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -47516,7 +47531,7 @@
       <c r="CS478" s="3"/>
       <c r="CT478" s="3"/>
     </row>
-    <row r="479" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -47614,7 +47629,7 @@
       <c r="CS479" s="3"/>
       <c r="CT479" s="3"/>
     </row>
-    <row r="480" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -47712,7 +47727,7 @@
       <c r="CS480" s="3"/>
       <c r="CT480" s="3"/>
     </row>
-    <row r="481" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -47810,7 +47825,7 @@
       <c r="CS481" s="3"/>
       <c r="CT481" s="3"/>
     </row>
-    <row r="482" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -47908,7 +47923,7 @@
       <c r="CS482" s="3"/>
       <c r="CT482" s="3"/>
     </row>
-    <row r="483" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -48006,7 +48021,7 @@
       <c r="CS483" s="3"/>
       <c r="CT483" s="3"/>
     </row>
-    <row r="484" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -48104,7 +48119,7 @@
       <c r="CS484" s="3"/>
       <c r="CT484" s="3"/>
     </row>
-    <row r="485" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -48202,7 +48217,7 @@
       <c r="CS485" s="3"/>
       <c r="CT485" s="3"/>
     </row>
-    <row r="486" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -48300,7 +48315,7 @@
       <c r="CS486" s="3"/>
       <c r="CT486" s="3"/>
     </row>
-    <row r="487" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -48398,7 +48413,7 @@
       <c r="CS487" s="3"/>
       <c r="CT487" s="3"/>
     </row>
-    <row r="488" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -48496,7 +48511,7 @@
       <c r="CS488" s="3"/>
       <c r="CT488" s="3"/>
     </row>
-    <row r="489" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -48594,7 +48609,7 @@
       <c r="CS489" s="3"/>
       <c r="CT489" s="3"/>
     </row>
-    <row r="490" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -48692,7 +48707,7 @@
       <c r="CS490" s="3"/>
       <c r="CT490" s="3"/>
     </row>
-    <row r="491" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -48790,7 +48805,7 @@
       <c r="CS491" s="3"/>
       <c r="CT491" s="3"/>
     </row>
-    <row r="492" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -48888,7 +48903,7 @@
       <c r="CS492" s="3"/>
       <c r="CT492" s="3"/>
     </row>
-    <row r="493" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -48986,7 +49001,7 @@
       <c r="CS493" s="3"/>
       <c r="CT493" s="3"/>
     </row>
-    <row r="494" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -49084,7 +49099,7 @@
       <c r="CS494" s="3"/>
       <c r="CT494" s="3"/>
     </row>
-    <row r="495" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -49182,7 +49197,7 @@
       <c r="CS495" s="3"/>
       <c r="CT495" s="3"/>
     </row>
-    <row r="496" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -49280,7 +49295,7 @@
       <c r="CS496" s="3"/>
       <c r="CT496" s="3"/>
     </row>
-    <row r="497" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -49378,7 +49393,7 @@
       <c r="CS497" s="3"/>
       <c r="CT497" s="3"/>
     </row>
-    <row r="498" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -49476,7 +49491,7 @@
       <c r="CS498" s="3"/>
       <c r="CT498" s="3"/>
     </row>
-    <row r="499" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -49574,7 +49589,7 @@
       <c r="CS499" s="3"/>
       <c r="CT499" s="3"/>
     </row>
-    <row r="500" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -49672,7 +49687,7 @@
       <c r="CS500" s="3"/>
       <c r="CT500" s="3"/>
     </row>
-    <row r="501" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -49770,7 +49785,7 @@
       <c r="CS501" s="3"/>
       <c r="CT501" s="3"/>
     </row>
-    <row r="502" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -49868,7 +49883,7 @@
       <c r="CS502" s="3"/>
       <c r="CT502" s="3"/>
     </row>
-    <row r="503" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -49966,7 +49981,7 @@
       <c r="CS503" s="3"/>
       <c r="CT503" s="3"/>
     </row>
-    <row r="504" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -50064,7 +50079,7 @@
       <c r="CS504" s="3"/>
       <c r="CT504" s="3"/>
     </row>
-    <row r="505" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -50162,7 +50177,7 @@
       <c r="CS505" s="3"/>
       <c r="CT505" s="3"/>
     </row>
-    <row r="506" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -50260,7 +50275,7 @@
       <c r="CS506" s="3"/>
       <c r="CT506" s="3"/>
     </row>
-    <row r="507" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -50358,7 +50373,7 @@
       <c r="CS507" s="3"/>
       <c r="CT507" s="3"/>
     </row>
-    <row r="508" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -50456,7 +50471,7 @@
       <c r="CS508" s="3"/>
       <c r="CT508" s="3"/>
     </row>
-    <row r="509" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -50554,7 +50569,7 @@
       <c r="CS509" s="3"/>
       <c r="CT509" s="3"/>
     </row>
-    <row r="510" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -50652,7 +50667,7 @@
       <c r="CS510" s="3"/>
       <c r="CT510" s="3"/>
     </row>
-    <row r="511" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -50750,7 +50765,7 @@
       <c r="CS511" s="3"/>
       <c r="CT511" s="3"/>
     </row>
-    <row r="512" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -50848,7 +50863,7 @@
       <c r="CS512" s="3"/>
       <c r="CT512" s="3"/>
     </row>
-    <row r="513" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -50946,7 +50961,7 @@
       <c r="CS513" s="3"/>
       <c r="CT513" s="3"/>
     </row>
-    <row r="514" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -51044,7 +51059,7 @@
       <c r="CS514" s="3"/>
       <c r="CT514" s="3"/>
     </row>
-    <row r="515" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -51142,7 +51157,7 @@
       <c r="CS515" s="3"/>
       <c r="CT515" s="3"/>
     </row>
-    <row r="516" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -51240,7 +51255,7 @@
       <c r="CS516" s="3"/>
       <c r="CT516" s="3"/>
     </row>
-    <row r="517" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -51338,7 +51353,7 @@
       <c r="CS517" s="3"/>
       <c r="CT517" s="3"/>
     </row>
-    <row r="518" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -51436,7 +51451,7 @@
       <c r="CS518" s="3"/>
       <c r="CT518" s="3"/>
     </row>
-    <row r="519" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -51534,7 +51549,7 @@
       <c r="CS519" s="3"/>
       <c r="CT519" s="3"/>
     </row>
-    <row r="520" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -51632,7 +51647,7 @@
       <c r="CS520" s="3"/>
       <c r="CT520" s="3"/>
     </row>
-    <row r="521" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -51730,7 +51745,7 @@
       <c r="CS521" s="3"/>
       <c r="CT521" s="3"/>
     </row>
-    <row r="522" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -51828,7 +51843,7 @@
       <c r="CS522" s="3"/>
       <c r="CT522" s="3"/>
     </row>
-    <row r="523" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -51926,7 +51941,7 @@
       <c r="CS523" s="3"/>
       <c r="CT523" s="3"/>
     </row>
-    <row r="524" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -52024,7 +52039,7 @@
       <c r="CS524" s="3"/>
       <c r="CT524" s="3"/>
     </row>
-    <row r="525" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -52122,7 +52137,7 @@
       <c r="CS525" s="3"/>
       <c r="CT525" s="3"/>
     </row>
-    <row r="526" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -52220,7 +52235,7 @@
       <c r="CS526" s="3"/>
       <c r="CT526" s="3"/>
     </row>
-    <row r="527" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -52318,7 +52333,7 @@
       <c r="CS527" s="3"/>
       <c r="CT527" s="3"/>
     </row>
-    <row r="528" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -52416,7 +52431,7 @@
       <c r="CS528" s="3"/>
       <c r="CT528" s="3"/>
     </row>
-    <row r="529" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -52514,7 +52529,7 @@
       <c r="CS529" s="3"/>
       <c r="CT529" s="3"/>
     </row>
-    <row r="530" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -52612,7 +52627,7 @@
       <c r="CS530" s="3"/>
       <c r="CT530" s="3"/>
     </row>
-    <row r="531" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -52710,7 +52725,7 @@
       <c r="CS531" s="3"/>
       <c r="CT531" s="3"/>
     </row>
-    <row r="532" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -52808,7 +52823,7 @@
       <c r="CS532" s="3"/>
       <c r="CT532" s="3"/>
     </row>
-    <row r="533" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -52906,7 +52921,7 @@
       <c r="CS533" s="3"/>
       <c r="CT533" s="3"/>
     </row>
-    <row r="534" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -53004,7 +53019,7 @@
       <c r="CS534" s="3"/>
       <c r="CT534" s="3"/>
     </row>
-    <row r="535" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -53102,7 +53117,7 @@
       <c r="CS535" s="3"/>
       <c r="CT535" s="3"/>
     </row>
-    <row r="536" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -53200,7 +53215,7 @@
       <c r="CS536" s="3"/>
       <c r="CT536" s="3"/>
     </row>
-    <row r="537" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -53298,7 +53313,7 @@
       <c r="CS537" s="3"/>
       <c r="CT537" s="3"/>
     </row>
-    <row r="538" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -53396,7 +53411,7 @@
       <c r="CS538" s="3"/>
       <c r="CT538" s="3"/>
     </row>
-    <row r="539" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -53494,7 +53509,7 @@
       <c r="CS539" s="3"/>
       <c r="CT539" s="3"/>
     </row>
-    <row r="540" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -53592,7 +53607,7 @@
       <c r="CS540" s="3"/>
       <c r="CT540" s="3"/>
     </row>
-    <row r="541" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -53690,7 +53705,7 @@
       <c r="CS541" s="3"/>
       <c r="CT541" s="3"/>
     </row>
-    <row r="542" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -53788,7 +53803,7 @@
       <c r="CS542" s="3"/>
       <c r="CT542" s="3"/>
     </row>
-    <row r="543" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -53886,7 +53901,7 @@
       <c r="CS543" s="3"/>
       <c r="CT543" s="3"/>
     </row>
-    <row r="544" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -53984,7 +53999,7 @@
       <c r="CS544" s="3"/>
       <c r="CT544" s="3"/>
     </row>
-    <row r="545" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -54082,7 +54097,7 @@
       <c r="CS545" s="3"/>
       <c r="CT545" s="3"/>
     </row>
-    <row r="546" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -54180,7 +54195,7 @@
       <c r="CS546" s="3"/>
       <c r="CT546" s="3"/>
     </row>
-    <row r="547" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -54278,7 +54293,7 @@
       <c r="CS547" s="3"/>
       <c r="CT547" s="3"/>
     </row>
-    <row r="548" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -54376,7 +54391,7 @@
       <c r="CS548" s="3"/>
       <c r="CT548" s="3"/>
     </row>
-    <row r="549" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -54474,7 +54489,7 @@
       <c r="CS549" s="3"/>
       <c r="CT549" s="3"/>
     </row>
-    <row r="550" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -54572,7 +54587,7 @@
       <c r="CS550" s="3"/>
       <c r="CT550" s="3"/>
     </row>
-    <row r="551" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -54670,7 +54685,7 @@
       <c r="CS551" s="3"/>
       <c r="CT551" s="3"/>
     </row>
-    <row r="552" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -54768,7 +54783,7 @@
       <c r="CS552" s="3"/>
       <c r="CT552" s="3"/>
     </row>
-    <row r="553" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -54866,7 +54881,7 @@
       <c r="CS553" s="3"/>
       <c r="CT553" s="3"/>
     </row>
-    <row r="554" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -54964,7 +54979,7 @@
       <c r="CS554" s="3"/>
       <c r="CT554" s="3"/>
     </row>
-    <row r="555" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -55062,7 +55077,7 @@
       <c r="CS555" s="3"/>
       <c r="CT555" s="3"/>
     </row>
-    <row r="556" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -55160,7 +55175,7 @@
       <c r="CS556" s="3"/>
       <c r="CT556" s="3"/>
     </row>
-    <row r="557" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -55258,7 +55273,7 @@
       <c r="CS557" s="3"/>
       <c r="CT557" s="3"/>
     </row>
-    <row r="558" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -55356,7 +55371,7 @@
       <c r="CS558" s="3"/>
       <c r="CT558" s="3"/>
     </row>
-    <row r="559" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -55454,7 +55469,7 @@
       <c r="CS559" s="3"/>
       <c r="CT559" s="3"/>
     </row>
-    <row r="560" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
@@ -55552,7 +55567,7 @@
       <c r="CS560" s="3"/>
       <c r="CT560" s="3"/>
     </row>
-    <row r="561" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
@@ -55650,7 +55665,7 @@
       <c r="CS561" s="3"/>
       <c r="CT561" s="3"/>
     </row>
-    <row r="562" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
@@ -55748,7 +55763,7 @@
       <c r="CS562" s="3"/>
       <c r="CT562" s="3"/>
     </row>
-    <row r="563" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
@@ -55846,7 +55861,7 @@
       <c r="CS563" s="3"/>
       <c r="CT563" s="3"/>
     </row>
-    <row r="564" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
@@ -55944,7 +55959,7 @@
       <c r="CS564" s="3"/>
       <c r="CT564" s="3"/>
     </row>
-    <row r="565" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
@@ -56042,7 +56057,7 @@
       <c r="CS565" s="3"/>
       <c r="CT565" s="3"/>
     </row>
-    <row r="566" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
@@ -56140,7 +56155,7 @@
       <c r="CS566" s="3"/>
       <c r="CT566" s="3"/>
     </row>
-    <row r="567" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -56238,7 +56253,7 @@
       <c r="CS567" s="3"/>
       <c r="CT567" s="3"/>
     </row>
-    <row r="568" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
@@ -56336,7 +56351,7 @@
       <c r="CS568" s="3"/>
       <c r="CT568" s="3"/>
     </row>
-    <row r="569" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
@@ -56434,7 +56449,7 @@
       <c r="CS569" s="3"/>
       <c r="CT569" s="3"/>
     </row>
-    <row r="570" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -56532,7 +56547,7 @@
       <c r="CS570" s="3"/>
       <c r="CT570" s="3"/>
     </row>
-    <row r="571" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
@@ -56630,7 +56645,7 @@
       <c r="CS571" s="3"/>
       <c r="CT571" s="3"/>
     </row>
-    <row r="572" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -56728,7 +56743,7 @@
       <c r="CS572" s="3"/>
       <c r="CT572" s="3"/>
     </row>
-    <row r="573" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -56826,7 +56841,7 @@
       <c r="CS573" s="3"/>
       <c r="CT573" s="3"/>
     </row>
-    <row r="574" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
@@ -56924,7 +56939,7 @@
       <c r="CS574" s="3"/>
       <c r="CT574" s="3"/>
     </row>
-    <row r="575" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
@@ -57022,7 +57037,7 @@
       <c r="CS575" s="3"/>
       <c r="CT575" s="3"/>
     </row>
-    <row r="576" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
@@ -57120,7 +57135,7 @@
       <c r="CS576" s="3"/>
       <c r="CT576" s="3"/>
     </row>
-    <row r="577" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -57218,7 +57233,7 @@
       <c r="CS577" s="3"/>
       <c r="CT577" s="3"/>
     </row>
-    <row r="578" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
@@ -57316,7 +57331,7 @@
       <c r="CS578" s="3"/>
       <c r="CT578" s="3"/>
     </row>
-    <row r="579" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
@@ -57414,7 +57429,7 @@
       <c r="CS579" s="3"/>
       <c r="CT579" s="3"/>
     </row>
-    <row r="580" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
@@ -57512,7 +57527,7 @@
       <c r="CS580" s="3"/>
       <c r="CT580" s="3"/>
     </row>
-    <row r="581" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
@@ -57610,7 +57625,7 @@
       <c r="CS581" s="3"/>
       <c r="CT581" s="3"/>
     </row>
-    <row r="582" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
@@ -57708,7 +57723,7 @@
       <c r="CS582" s="3"/>
       <c r="CT582" s="3"/>
     </row>
-    <row r="583" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
@@ -57806,7 +57821,7 @@
       <c r="CS583" s="3"/>
       <c r="CT583" s="3"/>
     </row>
-    <row r="584" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
@@ -57904,7 +57919,7 @@
       <c r="CS584" s="3"/>
       <c r="CT584" s="3"/>
     </row>
-    <row r="585" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
@@ -58002,7 +58017,7 @@
       <c r="CS585" s="3"/>
       <c r="CT585" s="3"/>
     </row>
-    <row r="586" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
@@ -58100,7 +58115,7 @@
       <c r="CS586" s="3"/>
       <c r="CT586" s="3"/>
     </row>
-    <row r="587" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
@@ -58198,7 +58213,7 @@
       <c r="CS587" s="3"/>
       <c r="CT587" s="3"/>
     </row>
-    <row r="588" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
@@ -58296,7 +58311,7 @@
       <c r="CS588" s="3"/>
       <c r="CT588" s="3"/>
     </row>
-    <row r="589" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
@@ -58394,7 +58409,7 @@
       <c r="CS589" s="3"/>
       <c r="CT589" s="3"/>
     </row>
-    <row r="590" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
@@ -58492,7 +58507,7 @@
       <c r="CS590" s="3"/>
       <c r="CT590" s="3"/>
     </row>
-    <row r="591" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
@@ -58590,7 +58605,7 @@
       <c r="CS591" s="3"/>
       <c r="CT591" s="3"/>
     </row>
-    <row r="592" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
@@ -58688,7 +58703,7 @@
       <c r="CS592" s="3"/>
       <c r="CT592" s="3"/>
     </row>
-    <row r="593" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
@@ -58786,7 +58801,7 @@
       <c r="CS593" s="3"/>
       <c r="CT593" s="3"/>
     </row>
-    <row r="594" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -58884,7 +58899,7 @@
       <c r="CS594" s="3"/>
       <c r="CT594" s="3"/>
     </row>
-    <row r="595" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
@@ -58982,7 +58997,7 @@
       <c r="CS595" s="3"/>
       <c r="CT595" s="3"/>
     </row>
-    <row r="596" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
@@ -59080,7 +59095,7 @@
       <c r="CS596" s="3"/>
       <c r="CT596" s="3"/>
     </row>
-    <row r="597" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
@@ -59178,7 +59193,7 @@
       <c r="CS597" s="3"/>
       <c r="CT597" s="3"/>
     </row>
-    <row r="598" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
@@ -59276,7 +59291,7 @@
       <c r="CS598" s="3"/>
       <c r="CT598" s="3"/>
     </row>
-    <row r="599" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
@@ -59374,7 +59389,7 @@
       <c r="CS599" s="3"/>
       <c r="CT599" s="3"/>
     </row>
-    <row r="600" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
@@ -59472,7 +59487,7 @@
       <c r="CS600" s="3"/>
       <c r="CT600" s="3"/>
     </row>
-    <row r="601" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
@@ -59570,7 +59585,7 @@
       <c r="CS601" s="3"/>
       <c r="CT601" s="3"/>
     </row>
-    <row r="602" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
@@ -59668,7 +59683,7 @@
       <c r="CS602" s="3"/>
       <c r="CT602" s="3"/>
     </row>
-    <row r="603" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
@@ -59766,7 +59781,7 @@
       <c r="CS603" s="3"/>
       <c r="CT603" s="3"/>
     </row>
-    <row r="604" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
@@ -59864,7 +59879,7 @@
       <c r="CS604" s="3"/>
       <c r="CT604" s="3"/>
     </row>
-    <row r="605" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
@@ -59962,7 +59977,7 @@
       <c r="CS605" s="3"/>
       <c r="CT605" s="3"/>
     </row>
-    <row r="606" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
@@ -60060,7 +60075,7 @@
       <c r="CS606" s="3"/>
       <c r="CT606" s="3"/>
     </row>
-    <row r="607" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -60158,7 +60173,7 @@
       <c r="CS607" s="3"/>
       <c r="CT607" s="3"/>
     </row>
-    <row r="608" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -60256,7 +60271,7 @@
       <c r="CS608" s="3"/>
       <c r="CT608" s="3"/>
     </row>
-    <row r="609" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -60354,7 +60369,7 @@
       <c r="CS609" s="3"/>
       <c r="CT609" s="3"/>
     </row>
-    <row r="610" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
@@ -60452,7 +60467,7 @@
       <c r="CS610" s="3"/>
       <c r="CT610" s="3"/>
     </row>
-    <row r="611" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
@@ -60550,7 +60565,7 @@
       <c r="CS611" s="3"/>
       <c r="CT611" s="3"/>
     </row>
-    <row r="612" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
@@ -60648,7 +60663,7 @@
       <c r="CS612" s="3"/>
       <c r="CT612" s="3"/>
     </row>
-    <row r="613" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
@@ -60746,7 +60761,7 @@
       <c r="CS613" s="3"/>
       <c r="CT613" s="3"/>
     </row>
-    <row r="614" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
@@ -60844,7 +60859,7 @@
       <c r="CS614" s="3"/>
       <c r="CT614" s="3"/>
     </row>
-    <row r="615" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
@@ -60942,7 +60957,7 @@
       <c r="CS615" s="3"/>
       <c r="CT615" s="3"/>
     </row>
-    <row r="616" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
@@ -61040,7 +61055,7 @@
       <c r="CS616" s="3"/>
       <c r="CT616" s="3"/>
     </row>
-    <row r="617" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
@@ -61138,7 +61153,7 @@
       <c r="CS617" s="3"/>
       <c r="CT617" s="3"/>
     </row>
-    <row r="618" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
@@ -61236,7 +61251,7 @@
       <c r="CS618" s="3"/>
       <c r="CT618" s="3"/>
     </row>
-    <row r="619" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
@@ -61334,7 +61349,7 @@
       <c r="CS619" s="3"/>
       <c r="CT619" s="3"/>
     </row>
-    <row r="620" spans="3:98" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:98" x14ac:dyDescent="0.2">
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
